--- a/GenericScenarioEvaluation/Reviewed Scenarios/BB/Formulation of Photoresists Draft.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/BB/Formulation of Photoresists Draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/barrett_williamm_epa_gov/Documents/Profile/Desktop/GS Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBARRETT\Environmental Protection Agency (EPA)\CSS RA-2 Project Team - General\Bill Paper - Generic Scenario Review\Reviewed Scenarios\BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{1932D437-516E-41CE-8812-6EFB7D706A9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D517CD-CEAB-446D-BD41-41FA92761662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="202">
   <si>
     <t>Included? (Y or N)</t>
   </si>
@@ -617,49 +617,37 @@
     <t>Container residues released to water, incineration, or landfill.</t>
   </si>
   <si>
-    <t>Open surface losses of volatile chemicals to air during container cleaning.</t>
-  </si>
-  <si>
-    <t>Transfer operation losses to air of volatile chemicals during unloading into the mix vessels.</t>
-  </si>
-  <si>
-    <t>Settled dust collected from the transfer of a solid powder into the mixing vessel released to water, incineration, or landfill.</t>
-  </si>
-  <si>
-    <t>Vented losses of volatile chemicals to air during mixing operations.</t>
-  </si>
-  <si>
-    <t>Equipment cleaning releases to water, incineration, or landfill.</t>
-  </si>
-  <si>
-    <t>Open surface losses of volatile chemicals to air during equipment cleaning.</t>
-  </si>
-  <si>
-    <t>Reject product released to incineration or landfill.</t>
-  </si>
-  <si>
-    <t>Open surface losses of volatile chemicals during filter change.</t>
-  </si>
-  <si>
-    <t>Release of chemicals trapped in spent filters to incineration or landfill.</t>
-  </si>
-  <si>
-    <t>Transfer operation losses to air of volatile chemicals during bottling operation.</t>
-  </si>
-  <si>
-    <t>Dermal and inhalation exposure from unloading solid and liquid materials into the process equipment.</t>
-  </si>
-  <si>
-    <t>Dermal and inhalation exposure from liquid and solid container cleaning.</t>
-  </si>
-  <si>
-    <t>Dermal and inhalation exposure during process equipment cleaning.</t>
-  </si>
-  <si>
-    <t>Dermal and inhalation exposure during filter change.</t>
-  </si>
-  <si>
-    <t>Dermal and inhalation exposure from bottling operation</t>
+    <t>EPA/OPPT Small Container Residual Model</t>
+  </si>
+  <si>
+    <t>Equipment cleaning and supply-line filter residues released to incineration or landfill</t>
+  </si>
+  <si>
+    <t>Excess photoresist (spin-off) released to incineration</t>
+  </si>
+  <si>
+    <t>Waste developer solvent containing residual photoresist released to water.</t>
+  </si>
+  <si>
+    <t>Potential dermal exposure to liquid photoresist during container change-out.</t>
+  </si>
+  <si>
+    <t>Potential dermal exposure to liquid photoresist during container cleaning or disposal.</t>
+  </si>
+  <si>
+    <t>Potential dermal exposure to liquid photoresist during routine equipment cleaning/maintenance (including change-out of supply-line filters).</t>
+  </si>
+  <si>
+    <t>Potential dermal exposure to liquid photoresist during excess photoresist collection vessel change-out/routine maintenance.</t>
+  </si>
+  <si>
+    <t>Potential dermal exposure to residual photoresist during waste solvent (e.g., developer, etching, stripping) collection vessel change-out/routine maintenance.</t>
+  </si>
+  <si>
+    <t>Loss rate is based on available industryspecific data</t>
+  </si>
+  <si>
+    <t>1-Hand Dermal Contact with Liquid Model</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,20 +1321,30 @@
       <c r="A2" t="s">
         <v>190</v>
       </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
@@ -1354,121 +1352,132 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>162</v>
+      </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2994,7 +3003,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B70249C-68E7-49E2-8405-55F3FE9B3E3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B70249C-68E7-49E2-8405-55F3FE9B3E3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
